--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3884218.934644285</v>
+        <v>3987016.354711938</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.478049852</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7190848.352915349</v>
+        <v>7156948.622651393</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>398.2527805383349</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.7944255145766</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734129911</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>115.0138334144197</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.5090754697038</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292592</v>
@@ -950,16 +952,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>233.6876255317294</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>8.276279573899627</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>151.8200255947316</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>62.02173306271701</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>310.4203810663456</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>177.3663548725807</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>39.35604302001489</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>111.7659209718375</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428377</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012157</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>77.93612009725788</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>36.43062059490413</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>125.2851635392079</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2239,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>108.027573600588</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2327,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>9.146142788179874</v>
+        <v>34.22340015155905</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>115.7077656527111</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,19 +2769,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>75.00788511618082</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710095</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>139.5115415340524</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652587</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.090599218082</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600545</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>7.155999212082741</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652517</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>41.33703994143053</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206849</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>95.12712756824257</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352484</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>115.2963218977563</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>1.79977260571659</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301535</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796302</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>921.7704558796302</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>921.7704558796302</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>921.7704558796302</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>510.7845510900226</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296689</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052372</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609175</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.31515313627</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520492</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794329</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450758</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520488</v>
+        <v>2071.975386180643</v>
       </c>
       <c r="X2" t="n">
-        <v>3009.337405520488</v>
+        <v>1698.509627919564</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943752</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215814</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410641</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886744</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533344</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>701.1808689801002</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="C4" t="n">
-        <v>532.2446860521933</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="D4" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962303</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372935</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596509</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588489</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886967</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068866</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596454</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>804.7114165106916</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>804.7114165106916</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>804.7114165106916</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>287.3046955757136</v>
       </c>
       <c r="Y4" t="n">
-        <v>701.1808689801002</v>
+        <v>66.51211643218349</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2773.289298922783</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2442.226411579212</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2442.226411579212</v>
       </c>
       <c r="X5" t="n">
-        <v>2394.678395166736</v>
+        <v>2068.760653318132</v>
       </c>
       <c r="Y5" t="n">
-        <v>2004.539063190924</v>
+        <v>1678.62132134232</v>
       </c>
     </row>
     <row r="6">
@@ -4635,13 +4637,13 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>478.9911633238872</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959803</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O7" t="n">
         <v>809.015235706886</v>
@@ -4747,28 +4749,28 @@
         <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757135</v>
+        <v>767.5334446113859</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757135</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="V7" t="n">
-        <v>768.4083333608478</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="W7" t="n">
-        <v>478.9911633238872</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="X7" t="n">
-        <v>478.9911633238872</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="Y7" t="n">
-        <v>478.9911633238872</v>
+        <v>478.4305777370295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1049.69844747624</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>691.4327488694898</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>305.6444962712456</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6989955220421</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>287.6669494074427</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176918</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915838</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y8" t="n">
-        <v>1914.669427940026</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>626.3436713194226</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C10" t="n">
-        <v>626.3436713194226</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>252.4828820224215</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>106.2656952402793</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>807.9921361496623</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>807.9921361496623</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>807.9921361496623</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>807.9921361496623</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>807.9921361496623</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>807.9921361496623</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5021,58 +5023,58 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5084,7 +5086,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962605</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998425</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.853600740073</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121663</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121663</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121663</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121663</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270463</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797745</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138426</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703127</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5258,67 +5260,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192895</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111743</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075833</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5352,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273899</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.155464951614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>710.2486053718729</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998425</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998425</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.5007694647297</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>631.564586536823</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>481.4479471244874</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>481.4479471244874</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908935</v>
+        <v>297.8113689946113</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057737</v>
+        <v>130.6152697094912</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>130.6152697094912</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235166</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579364</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373477</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336516</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.941813438499</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1492342949693</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,16 +5542,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5558,7 +5560,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803937</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3033.629298638936</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>2864.693115711029</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>2714.576476298694</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>2566.663382716301</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>2419.773435218391</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>4623.787448650996</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>4497.236778409372</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>4208.16155175357</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>3953.477063547683</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>3664.059893510723</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>3436.070342612706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>3215.277763469176</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5741,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,7 +5770,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5829,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>120.680066384834</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>741.8431516380886</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5972,64 +5974,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803938</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,55 +6123,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597624</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597624</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6187,10 +6189,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6242,34 +6244,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>814.4041655335318</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1901.695539989114</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.011051783227</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,64 +6451,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961526</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>526.565882642405</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>376.4492432300692</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="32">
@@ -6686,64 +6688,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>808.8888553856871</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>639.9526724577802</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>639.9526724577802</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>492.0395788753871</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580109</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634547</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384014</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>990.5373202159268</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075811</v>
@@ -6953,34 +6955,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>526.565882642405</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>526.565882642405</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>526.565882642405</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384021</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,28 +7162,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7190,34 +7192,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>842.6091804069461</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1470.207143961553</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2022.11687420084</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="41">
@@ -7397,28 +7399,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7427,16 +7429,16 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474785</v>
@@ -7482,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,61 +7636,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,7 +7721,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
         <v>95.58405025273906</v>
@@ -7728,22 +7730,22 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7813,7 +7815,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
@@ -7822,13 +7824,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487568</v>
@@ -7846,10 +7848,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392193998</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>67.48492792567322</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856542</v>
+        <v>44.8352157236614</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>92.12028678808019</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>40.58789941762433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>136.2749052347514</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>32.9077073655013</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>211.1765892730633</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>6.92242111251673</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>138.2650488108485</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>104.0840080815007</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25549,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>72.11969353038526</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>136.8413214260717</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>57.22910392194132</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>619998.6049278002</v>
+        <v>619998.6049278001</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>630419.9825585082</v>
+        <v>619998.6049278001</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>630419.9825585082</v>
+        <v>619998.6049278001</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>630419.9825585082</v>
+        <v>619998.6049278001</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>630419.9825585082</v>
+        <v>619998.6049278001</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>630419.9825585082</v>
+        <v>619998.6049278002</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="H2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="J2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="K2" t="n">
-        <v>821041.7698642847</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.7698642848</v>
-      </c>
-      <c r="M2" t="n">
-        <v>821041.7698642835</v>
-      </c>
-      <c r="N2" t="n">
-        <v>821041.769864285</v>
-      </c>
       <c r="O2" t="n">
-        <v>821041.7698642849</v>
+        <v>807146.5996900066</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727594</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972777</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363174</v>
+        <v>3.310606189188547e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.670698566158535e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405225</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93596.74410405246</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405257</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.74410405249</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405252</v>
-      </c>
       <c r="E4" t="n">
-        <v>15436.64000687979</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687979</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687964</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>23427.49926997311</v>
+        <v>15436.64000687958</v>
       </c>
       <c r="L4" t="n">
-        <v>23427.49926997311</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="M4" t="n">
-        <v>23427.49926997312</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>23427.49926997312</v>
+        <v>15436.64000687958</v>
       </c>
       <c r="O4" t="n">
-        <v>23427.49926997312</v>
+        <v>15436.64000687961</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613934</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709233.6605287555</v>
+        <v>-709233.6605287561</v>
       </c>
       <c r="C6" t="n">
-        <v>619511.0851988376</v>
+        <v>619511.0851988383</v>
       </c>
       <c r="D6" t="n">
-        <v>619511.0851988373</v>
+        <v>619511.0851988374</v>
       </c>
       <c r="E6" t="n">
         <v>365174.9680518643</v>
       </c>
       <c r="F6" t="n">
+        <v>690587.4298592192</v>
+      </c>
+      <c r="G6" t="n">
+        <v>690587.4298592194</v>
+      </c>
+      <c r="H6" t="n">
+        <v>690587.4298592194</v>
+      </c>
+      <c r="I6" t="n">
         <v>690587.4298592196</v>
       </c>
-      <c r="G6" t="n">
-        <v>690587.4298592191</v>
-      </c>
-      <c r="H6" t="n">
-        <v>690587.4298592195</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>473056.2274619418</v>
+      </c>
+      <c r="K6" t="n">
+        <v>690587.4298592189</v>
+      </c>
+      <c r="L6" t="n">
+        <v>690587.4298592196</v>
+      </c>
+      <c r="M6" t="n">
+        <v>605532.4019237077</v>
+      </c>
+      <c r="N6" t="n">
         <v>690587.4298592192</v>
       </c>
-      <c r="J6" t="n">
-        <v>473056.2274619419</v>
-      </c>
-      <c r="K6" t="n">
-        <v>675022.4367467645</v>
-      </c>
-      <c r="L6" t="n">
-        <v>694450.1547403963</v>
-      </c>
-      <c r="M6" t="n">
-        <v>609395.1268048834</v>
-      </c>
-      <c r="N6" t="n">
-        <v>694450.1547403964</v>
-      </c>
       <c r="O6" t="n">
-        <v>694450.1547403964</v>
+        <v>690587.4298592199</v>
       </c>
       <c r="P6" t="n">
-        <v>690587.4298592194</v>
+        <v>690587.4298592192</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593299</v>
@@ -26744,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022937</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,19 +26810,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022937</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022937</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022937</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>12.66894511511856</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>111.443513141477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-3.255978819893812e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27537,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>104.5351158617495</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.075577882390945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>17.30754642717258</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>361.4548211045694</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,13 +27785,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>67.72892368143764</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>190.115910261111</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.31346059713502</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>117.2414095147397</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>56.99637738982319</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>107.7830283043317</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -29512,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-12</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-7.330472653524714e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,46 +31199,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31613,7 +31615,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366862</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067262</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>270.9716933356913</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,19 +32311,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M18" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32336,7 +32338,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>153.972377511982</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
@@ -32570,10 +32572,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334981</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>581.3243739860823</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>407.2177391203972</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33266,28 +33268,28 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>581.3243739860818</v>
       </c>
       <c r="N30" t="n">
-        <v>137.7376326175077</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33453,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,37 +33496,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181821</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33593,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33690,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33737,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>750.6021172789102</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
@@ -33761,7 +33763,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33830,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33925,7 +33927,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,37 +33970,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>391.925066926462</v>
+        <v>397.6543049213396</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34065,7 +34067,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34164,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,28 +34207,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192546</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P42" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,7 +34237,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34304,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,40 +34359,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34399,7 +34401,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34448,31 +34450,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>577.7447198439381</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>407.2177391203963</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34515,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34539,7 +34541,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034297</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966719</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286439</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840384</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230785</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567575</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106947</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014231</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35261,7 +35263,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533528</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295343</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010451</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236320278</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774872</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>132.4173135558171</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295343</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
@@ -35957,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M18" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35984,7 +35986,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>27.13475084531533</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36218,10 +36220,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>439.1903400640639</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983789</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640634</v>
       </c>
       <c r="N30" t="n">
-        <v>6.395920534174421</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961638</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648388</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>619.2604051955769</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>257.9506595121318</v>
+        <v>263.6798975070093</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37853,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359212</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P42" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>439.1903400640639</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>265.083705198378</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38184,7 +38186,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3987016.354711938</v>
+        <v>3983003.744697947</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>398.2527805383349</v>
+        <v>302.4007216163464</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734129911</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>150.4026958753531</v>
       </c>
       <c r="T4" t="n">
-        <v>115.0138334144197</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>233.6876255317294</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>68.11015198958272</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.9824281355623</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>151.8200255947316</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>177.3663548725807</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>181.934823292375</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>179.6510014153923</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>39.35604302001489</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206822</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784684</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>36.43062059490413</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>4.019807611472022</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>60.25690685266579</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>9.146142788179368</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>34.22340015155905</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>115.7077656527111</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710095</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174138</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>139.5115415340524</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>7.155999212082741</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>41.33703994143053</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206849</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>95.12712756824257</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>41.01175877060098</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>115.2963218977563</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.3555494301535</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796302</v>
+        <v>2235.550262878907</v>
       </c>
       <c r="C2" t="n">
-        <v>921.7704558796302</v>
+        <v>1866.587745938496</v>
       </c>
       <c r="D2" t="n">
-        <v>921.7704558796302</v>
+        <v>1508.322047331745</v>
       </c>
       <c r="E2" t="n">
-        <v>921.7704558796302</v>
+        <v>1122.533794733501</v>
       </c>
       <c r="F2" t="n">
-        <v>510.7845510900226</v>
+        <v>711.5478899438933</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927146</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218349</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296689</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052372</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609175</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.31515313627</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520492</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794329</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450758</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180643</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919564</v>
+        <v>2235.550262878907</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943752</v>
+        <v>2235.550262878907</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
         <v>458.9189605332749</v>
@@ -4400,37 +4400,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218349</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215814</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410641</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886744</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533344</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218349</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218349</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218349</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218349</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218349</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218349</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218349</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218349</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962303</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372935</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596509</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588489</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886967</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068866</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596454</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181863</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181863</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="T4" t="n">
-        <v>804.7114165106916</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="U4" t="n">
-        <v>804.7114165106916</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="V4" t="n">
-        <v>804.7114165106916</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="W4" t="n">
-        <v>515.2942464737309</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="X4" t="n">
-        <v>287.3046955757136</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218349</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.62132134232</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2773.289298922783</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2442.226411579212</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W5" t="n">
-        <v>2442.226411579212</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X5" t="n">
-        <v>2068.760653318132</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y5" t="n">
-        <v>1678.62132134232</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>478.4305777370295</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C7" t="n">
-        <v>478.4305777370295</v>
+        <v>920.887005818185</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>770.7703664058492</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>622.8572728234561</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>475.9673253255457</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>308.2644887002647</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>767.5334446113859</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>478.4305777370295</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>478.4305777370295</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>478.4305777370295</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>478.4305777370295</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>478.4305777370295</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1418.660964416652</v>
+        <v>1197.506131441393</v>
       </c>
       <c r="C8" t="n">
-        <v>1049.69844747624</v>
+        <v>828.5436145009811</v>
       </c>
       <c r="D8" t="n">
-        <v>691.4327488694898</v>
+        <v>470.2779158942306</v>
       </c>
       <c r="E8" t="n">
-        <v>305.6444962712456</v>
+        <v>84.48966329598638</v>
       </c>
       <c r="F8" t="n">
-        <v>298.6989955220421</v>
+        <v>77.5441625467829</v>
       </c>
       <c r="G8" t="n">
-        <v>287.6669494074427</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3031.542604356091</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3031.542604356091</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2700.479717012521</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2347.711061742406</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392464</v>
+        <v>1974.245303481326</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416652</v>
+        <v>1584.105971505515</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879452</v>
+        <v>511.4317969248227</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600383</v>
+        <v>511.4317969248227</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477025</v>
+        <v>361.315157512487</v>
       </c>
       <c r="E10" t="n">
-        <v>420.1857186477025</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>420.1857186477025</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="G10" t="n">
-        <v>252.4828820224215</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="H10" t="n">
-        <v>106.2656952402793</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962297</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>692.8974549201685</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>692.8974549201685</v>
       </c>
     </row>
     <row r="11">
@@ -5032,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5068,10 +5068,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925216</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>296.7882229101285</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>149.8982754122182</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5229,22 +5229,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5372,13 +5372,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>297.8113689946113</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>130.6152697094912</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>130.6152697094912</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,16 +5506,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075813</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>154.6822255254121</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5752,10 +5752,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,7 +5770,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>120.680066384834</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5998,13 +5998,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6071,25 +6071,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.5477693179085</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>593.6115863900017</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>443.4949469776659</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>295.5818533952728</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3403484614387</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4041655335318</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,64 +6451,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803939</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803939</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438167</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703119</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>526.565882642405</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>376.4492432300692</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516146</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438167</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>808.8888553856871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>639.9526724577802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>639.9526724577802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>492.0395788753871</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235166</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258107</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602305</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396418</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359457</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.329899359457</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>990.5373202159268</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468473</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.159972732779</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703119</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>526.565882642405</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>526.565882642405</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>526.565882642405</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.294644713842</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703119</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,64 +7162,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803939</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803939</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>842.6091804069461</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1470.207143961553</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2022.11687420084</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876697</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602305</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396418</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359457</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614396</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179095</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7405,55 +7405,55 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192608</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199803</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1754.779756989948</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1016.58045691144</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192383</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.8352157236614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>111.1976478713722</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>32.9077073655013</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>6.92242111251673</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>138.2650488108485</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>104.0840080815007</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>72.11969353038526</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>138.8202214113363</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>136.8413214260717</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.22910392194132</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>619998.6049278001</v>
+        <v>619998.6049278002</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>619998.6049278001</v>
+        <v>619998.6049278002</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>619998.6049278002</v>
+        <v>619998.6049278001</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900067</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="H2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="M2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="P2" t="n">
         <v>807146.5996900063</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.5996900066</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.599690006</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727594</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.307101673679426e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972777</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>3.310606189188547e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
-        <v>1.670698566158535e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405225</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405243</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.6400068797</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15436.6400068797</v>
+      </c>
+      <c r="G4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15436.64000687966</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
@@ -26444,19 +26444,19 @@
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687958</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687958</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687961</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613934</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26496,16 +26496,16 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709233.6605287561</v>
+        <v>-709233.6605287555</v>
       </c>
       <c r="C6" t="n">
-        <v>619511.0851988383</v>
+        <v>619511.0851988371</v>
       </c>
       <c r="D6" t="n">
-        <v>619511.0851988374</v>
+        <v>619511.0851988369</v>
       </c>
       <c r="E6" t="n">
-        <v>365174.9680518643</v>
+        <v>364827.5887975084</v>
       </c>
       <c r="F6" t="n">
-        <v>690587.4298592192</v>
+        <v>690240.0506048624</v>
       </c>
       <c r="G6" t="n">
-        <v>690587.4298592194</v>
+        <v>690240.0506048624</v>
       </c>
       <c r="H6" t="n">
-        <v>690587.4298592194</v>
+        <v>690240.0506048627</v>
       </c>
       <c r="I6" t="n">
-        <v>690587.4298592196</v>
+        <v>690240.0506048625</v>
       </c>
       <c r="J6" t="n">
-        <v>473056.2274619418</v>
+        <v>472708.8482075848</v>
       </c>
       <c r="K6" t="n">
-        <v>690587.4298592189</v>
+        <v>690240.0506048626</v>
       </c>
       <c r="L6" t="n">
-        <v>690587.4298592196</v>
+        <v>690240.0506048623</v>
       </c>
       <c r="M6" t="n">
-        <v>605532.4019237077</v>
+        <v>605185.0226693507</v>
       </c>
       <c r="N6" t="n">
-        <v>690587.4298592192</v>
+        <v>690240.0506048626</v>
       </c>
       <c r="O6" t="n">
-        <v>690587.4298592199</v>
+        <v>690240.0506048625</v>
       </c>
       <c r="P6" t="n">
-        <v>690587.4298592192</v>
+        <v>690240.0506048626</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1089.776700593298</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1089.776700593298</v>
+      </c>
+      <c r="D3" t="n">
         <v>1089.776700593299</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593299</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022937</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26819,16 +26819,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022937</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022937</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022937</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.66894511511856</v>
+        <v>108.521004037107</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-3.255978819893812e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27542,22 +27542,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004727</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>39.36632945608878</v>
       </c>
       <c r="T4" t="n">
-        <v>104.5351158617495</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>17.30754642717258</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>259.6421064805522</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27779,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>1.772586778758466</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>67.72892368143764</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2414095147397</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>21.98314684724517</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.1809787665450244</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>56.99637738982319</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.394985773160066e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.429578708524912e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.989519660128281e-12</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-7.330472653524714e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30228,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.989519660128281e-12</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974801</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003814</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781693</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970253</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,46 +31199,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098822</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970232</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,7 +32101,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>153.972377511982</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32560,16 +32560,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32791,28 +32791,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>312.3207226334981</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>407.2177391203972</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>581.3243739860818</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>244.0266243181821</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>750.6021172789102</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>397.6543049213396</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192546</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>407.2177391203963</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597725</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034297</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966719</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286439</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840384</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230785</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567575</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106947</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014231</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525787</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>27.13475084531533</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36208,16 +36208,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>174.4792836591391</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>265.0837051983789</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>439.1903400640634</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>101.8925903961638</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>619.2604051955769</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>263.6798975070093</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359212</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>265.083705198378</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3983003.744697947</v>
+        <v>3984764.275000731</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>302.4007216163464</v>
+        <v>302.4007216163477</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>68.11015198958272</v>
+        <v>68.11015198958181</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>142.9824281355623</v>
+        <v>142.9824281355622</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>181.934823292375</v>
+        <v>181.9348232923723</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.6510014153923</v>
+        <v>179.6510014153915</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1375,13 +1375,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206822</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784684</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="15">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2013,10 +2013,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>60.25690685266579</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>185.6920487814951</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174138</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883605</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.01175877060098</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>26.70391688093298</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2235.550262878907</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="C2" t="n">
-        <v>1866.587745938496</v>
+        <v>1866.587745938497</v>
       </c>
       <c r="D2" t="n">
-        <v>1508.322047331745</v>
+        <v>1508.322047331746</v>
       </c>
       <c r="E2" t="n">
-        <v>1122.533794733501</v>
+        <v>1122.533794733502</v>
       </c>
       <c r="F2" t="n">
-        <v>711.5478899438933</v>
+        <v>711.5478899438947</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W2" t="n">
-        <v>2609.016021139987</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X2" t="n">
-        <v>2235.550262878907</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y2" t="n">
-        <v>2235.550262878907</v>
+        <v>2235.550262878909</v>
       </c>
     </row>
     <row r="3">
@@ -4400,16 +4400,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4476,40 +4476,40 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
         <v>831.0565485757129</v>
@@ -4555,7 +4555,7 @@
         <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4637,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="D7" t="n">
-        <v>770.7703664058492</v>
+        <v>770.7703664058491</v>
       </c>
       <c r="E7" t="n">
-        <v>622.8572728234561</v>
+        <v>622.857272823456</v>
       </c>
       <c r="F7" t="n">
-        <v>475.9673253255457</v>
+        <v>475.9673253255456</v>
       </c>
       <c r="G7" t="n">
-        <v>308.2644887002647</v>
+        <v>308.2644887002646</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4783,55 +4783,55 @@
         <v>1197.506131441393</v>
       </c>
       <c r="C8" t="n">
-        <v>828.5436145009811</v>
+        <v>828.543614500981</v>
       </c>
       <c r="D8" t="n">
-        <v>470.2779158942306</v>
+        <v>470.2779158942305</v>
       </c>
       <c r="E8" t="n">
-        <v>84.48966329598638</v>
+        <v>84.48966329598633</v>
       </c>
       <c r="F8" t="n">
-        <v>77.5441625467829</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
         <v>3031.542604356091</v>
@@ -4840,7 +4840,7 @@
         <v>3031.542604356091</v>
       </c>
       <c r="V8" t="n">
-        <v>2700.479717012521</v>
+        <v>2700.47971701252</v>
       </c>
       <c r="W8" t="n">
         <v>2347.711061742406</v>
@@ -4849,7 +4849,7 @@
         <v>1974.245303481326</v>
       </c>
       <c r="Y8" t="n">
-        <v>1584.105971505515</v>
+        <v>1584.105971505514</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158138</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>511.4317969248227</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248227</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>361.315157512487</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962297</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596508</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588487</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886963</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068862</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.966238459645</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>692.8974549201685</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y10" t="n">
-        <v>692.8974549201685</v>
+        <v>692.8974549201675</v>
       </c>
     </row>
     <row r="11">
@@ -5023,40 +5023,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,10 +5068,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5269,22 +5269,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5320,7 +5320,7 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5506,16 +5506,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075813</v>
@@ -5527,7 +5527,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5548,16 +5548,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459582</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>599.6019060180513</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>449.4852666057155</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>301.5721730233224</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>154.6822255254121</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761979</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5752,19 +5752,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5989,7 +5989,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6007,10 +6007,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6220,43 +6220,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2259.395357538347</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1970.320130882545</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,13 +6478,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398594</v>
@@ -6502,10 +6502,10 @@
         <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6554,10 +6554,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>372.4964262156764</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L36" t="n">
-        <v>867.8220324314351</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M36" t="n">
         <v>1465.200520057987</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612594</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P36" t="n">
         <v>2516.421633107662</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>267.680263960966</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>120.7903164630557</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23901,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>105.2672314396031</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>31.71340154579315</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>138.8202214113363</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>138.8202214113359</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>619998.6049278002</v>
+        <v>619998.6049278001</v>
       </c>
     </row>
     <row r="9">
@@ -26316,46 +26316,46 @@
         <v>821041.7698642829</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642828</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642827</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900067</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="F2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="H2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.5996900065</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="J2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.5996900063</v>
       </c>
       <c r="O2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.307101673679426e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.861628258540616e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405252</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93596.74410405256</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405257</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.74410405252</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405243</v>
-      </c>
       <c r="E4" t="n">
-        <v>15436.6400068797</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.6400068797</v>
+        <v>15436.64000687971</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
@@ -26444,16 +26444,16 @@
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687963</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
@@ -26524,46 +26524,46 @@
         <v>-709233.6605287555</v>
       </c>
       <c r="C6" t="n">
-        <v>619511.0851988371</v>
+        <v>619511.085198837</v>
       </c>
       <c r="D6" t="n">
         <v>619511.0851988369</v>
       </c>
       <c r="E6" t="n">
-        <v>364827.5887975084</v>
+        <v>365140.2301264286</v>
       </c>
       <c r="F6" t="n">
-        <v>690240.0506048624</v>
+        <v>690552.6919337837</v>
       </c>
       <c r="G6" t="n">
-        <v>690240.0506048624</v>
+        <v>690552.6919337839</v>
       </c>
       <c r="H6" t="n">
-        <v>690240.0506048627</v>
+        <v>690552.6919337838</v>
       </c>
       <c r="I6" t="n">
-        <v>690240.0506048625</v>
+        <v>690552.6919337835</v>
       </c>
       <c r="J6" t="n">
-        <v>472708.8482075848</v>
+        <v>473021.4895365062</v>
       </c>
       <c r="K6" t="n">
-        <v>690240.0506048626</v>
+        <v>690552.6919337839</v>
       </c>
       <c r="L6" t="n">
-        <v>690240.0506048623</v>
+        <v>690552.6919337837</v>
       </c>
       <c r="M6" t="n">
-        <v>605185.0226693507</v>
+        <v>605497.6639982722</v>
       </c>
       <c r="N6" t="n">
-        <v>690240.0506048626</v>
+        <v>690552.6919337838</v>
       </c>
       <c r="O6" t="n">
-        <v>690240.0506048625</v>
+        <v>690552.6919337838</v>
       </c>
       <c r="P6" t="n">
-        <v>690240.0506048626</v>
+        <v>690552.6919337838</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022933</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>108.521004037107</v>
+        <v>108.5210040371057</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>259.6421064805522</v>
+        <v>259.6421064805531</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.772586778758466</v>
+        <v>1.772586778758551</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>21.98314684724517</v>
+        <v>21.98314684724787</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1809787665450244</v>
+        <v>0.1809787665458202</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.394985773160066e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28392,10 +28392,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.429578708524912e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>9.644368062787367e-13</v>
       </c>
     </row>
     <row r="15">
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970232</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>400.5469039565762</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>359.7096985496635</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>266.392684868584</v>
+        <v>266.3926848685833</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>400.5469039565762</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525787</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034295</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966713</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840383</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106942</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014226</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>257.9506595121318</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>228.3679864663302</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>128.551245894225</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>257.9506595121318</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
